--- a/thermalDataFitting.xlsx
+++ b/thermalDataFitting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liqun\PycharmProjects\pdf2execl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF3723-FB12-48A7-9FDE-7BFBF24A406A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE736DB-81CF-4823-AB57-FE3802E5CBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-144" windowWidth="23040" windowHeight="12504" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="高过2" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="低省2" sheetId="14" r:id="rId14"/>
     <sheet name="低省1" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="54">
   <si>
     <t>烟气侧</t>
   </si>
@@ -202,6 +202,14 @@
     <t>当量换热面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>半山二期9F热力汇总表（性能保证工况,17.4℃,30%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -223,12 +231,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -243,13 +257,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2560,6 +2584,754 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>低省1!$L$3:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>659169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>759569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>769868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>746501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>760054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>721848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>740569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>728963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>563620</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>635239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>602502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>621535</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>739511</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>758603</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>746770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>756002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>467216</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>679960</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>707530</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>625563</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>397747</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>565892</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>578911</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>581745</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>284094</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>398061</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>375095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>396255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>低省1!$AB$3:$AB$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25D8-442B-84A5-BBED58F4AE85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1723734480"/>
+        <c:axId val="1723720752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1723734480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723720752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1723720752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1723734480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>低省1!$L$3:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>659169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>759569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>769868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>746501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>760054</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>721848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>740569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>728963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>563620</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>635239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>602502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>621535</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>739511</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>758603</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>746770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>756002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>467216</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>679960</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>707530</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>625563</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>397747</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>565892</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>578911</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>581745</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>284094</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>398061</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>375095</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>396255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>低省1!$V$3:$V$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB1B-42B5-8605-3CB3C079F490}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1564111760"/>
+        <c:axId val="1564112176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1564111760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1564112176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1564112176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1564111760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2681,6 +3453,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4784,20 +5636,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>984324</xdr:colOff>
+      <xdr:colOff>701296</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>23531</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323177</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>81130</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157330</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4824,16 +6708,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209213</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>89471</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>254037</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>39332</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>90752</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>93761</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4930,6 +6814,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134166</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>423726</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>90623</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04708FF8-5B18-4E60-9E8E-C8E993B4062C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>21499</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>37556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>316774</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>117839</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF8D60A-0AC3-456A-804E-253FEC474A4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5201,10 +7162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5230,32 +7191,32 @@
     <col min="23" max="23" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-    </row>
-    <row r="2" spans="1:23" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+    </row>
+    <row r="2" spans="1:25" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5326,7 +7287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -5391,15 +7352,23 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V3">
-        <f>((E3-Q3)-(F3-R3))/LN((E3-Q3)/(F3-R3))</f>
+        <f t="shared" ref="V3:V31" si="0">((E3-Q3)-(F3-R3))/LN((E3-Q3)/(F3-R3))</f>
         <v>60.369676999589622</v>
       </c>
       <c r="W3">
         <f>T3/V3</f>
         <v>0.94749554483103882</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <f>B3/3.6</f>
+        <v>654.83333333333337</v>
+      </c>
+      <c r="Y3">
+        <f>T3*1000/3.6</f>
+        <v>15888.888888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5464,15 +7433,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V4" s="3">
-        <f>((E4-Q4)-(F4-R4))/LN((E4-Q4)/(F4-R4))</f>
+        <f t="shared" si="0"/>
         <v>57.828270702772663</v>
       </c>
       <c r="W4" s="3">
-        <f t="shared" ref="W4:W31" si="0">T4/V4</f>
+        <f t="shared" ref="W4:W31" si="1">T4/V4</f>
         <v>0.95455041849199473</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="4">
+        <f t="shared" ref="X4:X31" si="2">B4/3.6</f>
+        <v>664.72222222222217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5537,15 +7510,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V5" s="3">
-        <f>((E5-Q5)-(F5-R5))/LN((E5-Q5)/(F5-R5))</f>
+        <f t="shared" si="0"/>
         <v>77.77862230719397</v>
       </c>
       <c r="W5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93213273582623313</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="4">
+        <f t="shared" si="2"/>
+        <v>612.22222222222217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5610,15 +7587,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V6" s="3">
-        <f>((E6-Q6)-(F6-R6))/LN((E6-Q6)/(F6-R6))</f>
+        <f t="shared" si="0"/>
         <v>55.131844489006419</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96314571899709289</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="4">
+        <f t="shared" si="2"/>
+        <v>695.55555555555554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -5683,15 +7664,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V7" s="3">
-        <f>((E7-Q7)-(F7-R7))/LN((E7-Q7)/(F7-R7))</f>
+        <f t="shared" si="0"/>
         <v>51.971247711811557</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96014627697035593</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="4">
+        <f t="shared" si="2"/>
+        <v>714.16666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -5756,15 +7741,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V8" s="3">
-        <f>((E8-Q8)-(F8-R8))/LN((E8-Q8)/(F8-R8))</f>
+        <f t="shared" si="0"/>
         <v>60.884682013688725</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94440831582354745</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="4">
+        <f t="shared" si="2"/>
+        <v>654.72222222222217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5829,15 +7818,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V9" s="3">
-        <f>((E9-Q9)-(F9-R9))/LN((E9-Q9)/(F9-R9))</f>
+        <f t="shared" si="0"/>
         <v>61.58425269977122</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94179920121390814</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="4">
+        <f t="shared" si="2"/>
+        <v>654.72222222222217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -5902,15 +7895,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V10" s="3">
-        <f>((E10-Q10)-(F10-R10))/LN((E10-Q10)/(F10-R10))</f>
+        <f t="shared" si="0"/>
         <v>60.662954145484363</v>
       </c>
       <c r="W10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94621174996425306</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="4">
+        <f t="shared" si="2"/>
+        <v>654.72222222222217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5975,15 +7972,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V11" s="3">
-        <f>((E11-Q11)-(F11-R11))/LN((E11-Q11)/(F11-R11))</f>
+        <f t="shared" si="0"/>
         <v>61.437295585135892</v>
       </c>
       <c r="W11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94242429534948957</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="4">
+        <f t="shared" si="2"/>
+        <v>654.72222222222217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -6048,15 +8049,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V12" s="3">
-        <f>((E12-Q12)-(F12-R12))/LN((E12-Q12)/(F12-R12))</f>
+        <f t="shared" si="0"/>
         <v>78.479311638857965</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92890723016872845</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="4">
+        <f t="shared" si="2"/>
+        <v>612.22222222222217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -6121,15 +8126,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V13" s="3">
-        <f>((E13-Q13)-(F13-R13))/LN((E13-Q13)/(F13-R13))</f>
+        <f t="shared" si="0"/>
         <v>78.956988657346741</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92962005324870411</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="4">
+        <f t="shared" si="2"/>
+        <v>612.22222222222217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -6194,15 +8203,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V14" s="3">
-        <f>((E14-Q14)-(F14-R14))/LN((E14-Q14)/(F14-R14))</f>
+        <f t="shared" si="0"/>
         <v>78.258370374836588</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93025192897970577</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="4">
+        <f t="shared" si="2"/>
+        <v>612.22222222222217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -6267,15 +8280,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V15" s="3">
-        <f>((E15-Q15)-(F15-R15))/LN((E15-Q15)/(F15-R15))</f>
+        <f t="shared" si="0"/>
         <v>78.773432470905561</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93051677070277294</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="4">
+        <f t="shared" si="2"/>
+        <v>612.22222222222217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -6340,15 +8357,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V16" s="3">
-        <f>((E16-Q16)-(F16-R16))/LN((E16-Q16)/(F16-R16))</f>
+        <f t="shared" si="0"/>
         <v>56.561998495597344</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95824054031999606</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="4">
+        <f t="shared" si="2"/>
+        <v>695.55555555555554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -6413,15 +8434,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V17" s="3">
-        <f>((E17-Q17)-(F17-R17))/LN((E17-Q17)/(F17-R17))</f>
+        <f t="shared" si="0"/>
         <v>55.281328225502271</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96235024930999913</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="4">
+        <f t="shared" si="2"/>
+        <v>695.55555555555554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -6486,15 +8511,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V18" s="3">
-        <f>((E18-Q18)-(F18-R18))/LN((E18-Q18)/(F18-R18))</f>
+        <f t="shared" si="0"/>
         <v>56.232967440650576</v>
       </c>
       <c r="W18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95851246080668184</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="4">
+        <f t="shared" si="2"/>
+        <v>695.55555555555554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -6559,15 +8588,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V19" s="3">
-        <f>((E19-Q19)-(F19-R19))/LN((E19-Q19)/(F19-R19))</f>
+        <f t="shared" si="0"/>
         <v>55.720834242990733</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96193821805068336</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="4">
+        <f t="shared" si="2"/>
+        <v>695.55555555555554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -6632,15 +8665,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V20" s="3">
-        <f>((E20-Q20)-(F20-R20))/LN((E20-Q20)/(F20-R20))</f>
+        <f t="shared" si="0"/>
         <v>136.79886444356404</v>
       </c>
       <c r="W20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85234625648594453</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" s="4">
+        <f t="shared" si="2"/>
+        <v>483.05555555555554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -6705,15 +8742,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V21" s="3">
-        <f>((E21-Q21)-(F21-R21))/LN((E21-Q21)/(F21-R21))</f>
+        <f t="shared" si="0"/>
         <v>115.06336840102374</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86387180717295631</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" s="4">
+        <f t="shared" si="2"/>
+        <v>515.27777777777771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -6778,15 +8819,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V22" s="3">
-        <f>((E22-Q22)-(F22-R22))/LN((E22-Q22)/(F22-R22))</f>
+        <f t="shared" si="0"/>
         <v>119.82801660075464</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86540696359441316</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22" s="4">
+        <f t="shared" si="2"/>
+        <v>510.55555555555554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -6851,15 +8896,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V23" s="3">
-        <f>((E23-Q23)-(F23-R23))/LN((E23-Q23)/(F23-R23))</f>
+        <f t="shared" si="0"/>
         <v>87.701863214547643</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8745538257535822</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23" s="4">
+        <f t="shared" si="2"/>
+        <v>540.27777777777771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -6924,15 +8973,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V24" s="3">
-        <f>((E24-Q24)-(F24-R24))/LN((E24-Q24)/(F24-R24))</f>
+        <f t="shared" si="0"/>
         <v>145.06121164533076</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7631261227202305</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24" s="4">
+        <f t="shared" si="2"/>
+        <v>386.38888888888886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -6997,15 +9050,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V25" s="3">
-        <f>((E25-Q25)-(F25-R25))/LN((E25-Q25)/(F25-R25))</f>
+        <f t="shared" si="0"/>
         <v>143.90015453393033</v>
       </c>
       <c r="W25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.77484280931546412</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25" s="4">
+        <f t="shared" si="2"/>
+        <v>403.61111111111109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -7070,15 +9127,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V26" s="3">
-        <f>((E26-Q26)-(F26-R26))/LN((E26-Q26)/(F26-R26))</f>
+        <f t="shared" si="0"/>
         <v>143.60919156442071</v>
       </c>
       <c r="W26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.77641269883469077</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26" s="4">
+        <f t="shared" si="2"/>
+        <v>401.94444444444446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -7143,15 +9204,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V27" s="3">
-        <f>((E27-Q27)-(F27-R27))/LN((E27-Q27)/(F27-R27))</f>
+        <f t="shared" si="0"/>
         <v>142.73460327391206</v>
       </c>
       <c r="W27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78677487745906205</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27" s="4">
+        <f t="shared" si="2"/>
+        <v>415.83333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -7216,15 +9281,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V28" s="3">
-        <f>((E28-Q28)-(F28-R28))/LN((E28-Q28)/(F28-R28))</f>
+        <f t="shared" si="0"/>
         <v>48.249298912143516</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66943977898652207</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X28" s="4">
+        <f t="shared" si="2"/>
+        <v>329.16666666666669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -7289,17 +9358,21 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V29" s="3">
-        <f>((E29-Q29)-(F29-R29))/LN((E29-Q29)/(F29-R29))</f>
+        <f t="shared" si="0"/>
         <v>38.362059880717659</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.67514622730200158</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29" s="4">
+        <f t="shared" si="2"/>
+        <v>346.11111111111109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>1235</v>
@@ -7362,15 +9435,19 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V30" s="3">
-        <f>((E30-Q30)-(F30-R30))/LN((E30-Q30)/(F30-R30))</f>
+        <f t="shared" si="0"/>
         <v>43.177395634648427</v>
       </c>
       <c r="W30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.67859581545691294</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" s="4">
+        <f t="shared" si="2"/>
+        <v>343.05555555555554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -7435,12 +9512,16 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="V31" s="3">
-        <f>((E31-Q31)-(F31-R31))/LN((E31-Q31)/(F31-R31))</f>
+        <f t="shared" si="0"/>
         <v>32.232960144138033</v>
       </c>
       <c r="W31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.67942875559887994</v>
+      </c>
+      <c r="X31" s="4">
+        <f t="shared" si="2"/>
+        <v>357.5</v>
       </c>
     </row>
   </sheetData>
@@ -13375,7 +15456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -15347,7 +17428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -17317,18 +19398,19 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.88671875" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -17336,72 +19418,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -17454,7 +19542,7 @@
         <v>98.8</v>
       </c>
       <c r="R3">
-        <v>33.799999999999997</v>
+        <v>60.05</v>
       </c>
       <c r="S3">
         <v>65</v>
@@ -17465,8 +19553,19 @@
       <c r="U3">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" s="7"/>
+      <c r="W3" s="5">
+        <f t="shared" ref="W3:W31" si="0">((E3-Q3)-(F3-R3))/LN((E3-Q3)/(F3-R3))</f>
+        <v>26.518263087952622</v>
+      </c>
+      <c r="X3" s="5">
+        <f>T3*1000/3.6/W3</f>
+        <v>1121.8683479128606</v>
+      </c>
+      <c r="Z3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -17518,8 +19617,8 @@
       <c r="Q4">
         <v>94.1</v>
       </c>
-      <c r="R4">
-        <v>28.8</v>
+      <c r="R4" s="5">
+        <v>60.05</v>
       </c>
       <c r="S4">
         <v>65.3</v>
@@ -17530,8 +19629,21 @@
       <c r="U4">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="7"/>
+      <c r="W4" s="5">
+        <f t="shared" si="0"/>
+        <v>26.428496790574339</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" ref="X4:X30" si="1">T4*1000/3.6/W4</f>
+        <v>1137.2404489639682</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -17583,8 +19695,8 @@
       <c r="Q5">
         <v>107.5</v>
       </c>
-      <c r="R5">
-        <v>45.2</v>
+      <c r="R5" s="5">
+        <v>60.05</v>
       </c>
       <c r="S5">
         <v>62.3</v>
@@ -17595,8 +19707,21 @@
       <c r="U5">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" s="7"/>
+      <c r="W5" s="5">
+        <f t="shared" si="0"/>
+        <v>25.595274215852584</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" si="1"/>
+        <v>1080.9287071255972</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -17648,8 +19773,8 @@
       <c r="Q6">
         <v>95.8</v>
       </c>
-      <c r="R6">
-        <v>27.9</v>
+      <c r="R6" s="5">
+        <v>60.05</v>
       </c>
       <c r="S6">
         <v>67.900000000000006</v>
@@ -17660,8 +19785,21 @@
       <c r="U6">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" s="7"/>
+      <c r="W6" s="5">
+        <f t="shared" si="0"/>
+        <v>27.533978883049485</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="1"/>
+        <v>1161.1914993479209</v>
+      </c>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -17713,8 +19851,8 @@
       <c r="Q7">
         <v>98.3</v>
       </c>
-      <c r="R7">
-        <v>28</v>
+      <c r="R7" s="5">
+        <v>60.05</v>
       </c>
       <c r="S7">
         <v>70.3</v>
@@ -17725,8 +19863,21 @@
       <c r="U7">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" s="7"/>
+      <c r="W7" s="5">
+        <f t="shared" si="0"/>
+        <v>28.313767917327304</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="1"/>
+        <v>1173.3592759263618</v>
+      </c>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -17778,8 +19929,8 @@
       <c r="Q8">
         <v>92.6</v>
       </c>
-      <c r="R8">
-        <v>30.6</v>
+      <c r="R8" s="5">
+        <v>60.05</v>
       </c>
       <c r="S8">
         <v>62.1</v>
@@ -17790,8 +19941,21 @@
       <c r="U8">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="7"/>
+      <c r="W8" s="5">
+        <f t="shared" si="0"/>
+        <v>25.507988264262078</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" si="1"/>
+        <v>1128.1868832477405</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -17843,8 +20007,8 @@
       <c r="Q9">
         <v>94.7</v>
       </c>
-      <c r="R9">
-        <v>27.1</v>
+      <c r="R9" s="5">
+        <v>60.05</v>
       </c>
       <c r="S9">
         <v>67.599999999999994</v>
@@ -17855,8 +20019,21 @@
       <c r="U9">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="7"/>
+      <c r="W9" s="5">
+        <f t="shared" si="0"/>
+        <v>25.795948963776404</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="1"/>
+        <v>1127.4380087421166</v>
+      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -17908,8 +20085,8 @@
       <c r="Q10">
         <v>93.7</v>
       </c>
-      <c r="R10">
-        <v>28.3</v>
+      <c r="R10" s="5">
+        <v>60.05</v>
       </c>
       <c r="S10">
         <v>65.3</v>
@@ -17920,8 +20097,21 @@
       <c r="U10">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="7"/>
+      <c r="W10" s="5">
+        <f t="shared" si="0"/>
+        <v>25.654291391187396</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="1"/>
+        <v>1128.249617309144</v>
+      </c>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -17973,8 +20163,8 @@
       <c r="Q11">
         <v>94.3</v>
       </c>
-      <c r="R11">
-        <v>27.4</v>
+      <c r="R11" s="5">
+        <v>60.05</v>
       </c>
       <c r="S11">
         <v>66.900000000000006</v>
@@ -17985,73 +20175,98 @@
       <c r="U11">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="V11" s="7"/>
+      <c r="W11" s="5">
+        <f t="shared" si="0"/>
+        <v>25.831526512296158</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" si="1"/>
+        <v>1125.8851976668614</v>
+      </c>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>2204</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>6000</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>179</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <v>126.3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="8">
         <v>84.9</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="8">
         <v>41.4</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="8">
         <v>1.0680000000000001</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="8">
         <v>97.8</v>
       </c>
-      <c r="J12">
-        <v>99.6</v>
-      </c>
-      <c r="K12">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="L12">
+      <c r="J12" s="8">
+        <v>99.6</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="L12" s="8">
         <v>563620</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="8">
         <v>3.62</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="8">
         <v>1.19</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="8">
         <v>1.02</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="8">
         <v>0.16500000000000001</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="8">
         <v>101.3</v>
       </c>
-      <c r="R12">
-        <v>41.1</v>
-      </c>
-      <c r="S12">
+      <c r="R12" s="5">
+        <v>60.05</v>
+      </c>
+      <c r="S12" s="8">
         <v>60.2</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="8">
         <v>97.4</v>
       </c>
-      <c r="U12">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U12" s="8">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="8">
+        <f t="shared" si="0"/>
+        <v>24.924924774141129</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="1"/>
+        <v>1085.4819342774865</v>
+      </c>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="9"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -18103,8 +20318,8 @@
       <c r="Q13">
         <v>95.8</v>
       </c>
-      <c r="R13">
-        <v>37.799999999999997</v>
+      <c r="R13" s="5">
+        <v>60.05</v>
       </c>
       <c r="S13">
         <v>58</v>
@@ -18115,8 +20330,21 @@
       <c r="U13">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="7"/>
+      <c r="W13" s="5">
+        <f t="shared" si="0"/>
+        <v>24.394699021619122</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" si="1"/>
+        <v>1085.1628953799329</v>
+      </c>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="7"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -18168,8 +20396,8 @@
       <c r="Q14">
         <v>98.2</v>
       </c>
-      <c r="R14">
-        <v>39.1</v>
+      <c r="R14" s="5">
+        <v>60.05</v>
       </c>
       <c r="S14">
         <v>59.1</v>
@@ -18180,8 +20408,21 @@
       <c r="U14">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="7"/>
+      <c r="W14" s="5">
+        <f t="shared" si="0"/>
+        <v>24.547432025429554</v>
+      </c>
+      <c r="X14" s="5">
+        <f t="shared" si="1"/>
+        <v>1088.5954259712269</v>
+      </c>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -18233,8 +20474,8 @@
       <c r="Q15">
         <v>96.8</v>
       </c>
-      <c r="R15">
-        <v>38.299999999999997</v>
+      <c r="R15" s="5">
+        <v>60.05</v>
       </c>
       <c r="S15">
         <v>58.5</v>
@@ -18245,8 +20486,21 @@
       <c r="U15">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="7"/>
+      <c r="W15" s="5">
+        <f t="shared" si="0"/>
+        <v>24.471892373929116</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" si="1"/>
+        <v>1086.2802486682076</v>
+      </c>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -18298,8 +20552,8 @@
       <c r="Q16">
         <v>96.6</v>
       </c>
-      <c r="R16">
-        <v>23.8</v>
+      <c r="R16" s="5">
+        <v>60.05</v>
       </c>
       <c r="S16">
         <v>72.8</v>
@@ -18310,8 +20564,21 @@
       <c r="U16">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="7"/>
+      <c r="W16" s="5">
+        <f t="shared" si="0"/>
+        <v>27.101125522900901</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" si="1"/>
+        <v>1159.2384471308787</v>
+      </c>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="7"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -18363,8 +20630,8 @@
       <c r="Q17">
         <v>95.5</v>
       </c>
-      <c r="R17">
-        <v>25</v>
+      <c r="R17" s="5">
+        <v>60.05</v>
       </c>
       <c r="S17">
         <v>70.5</v>
@@ -18375,8 +20642,21 @@
       <c r="U17">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="7"/>
+      <c r="W17" s="5">
+        <f t="shared" si="0"/>
+        <v>27.013042728055542</v>
+      </c>
+      <c r="X17" s="5">
+        <f t="shared" si="1"/>
+        <v>1157.8768853496431</v>
+      </c>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -18428,8 +20708,8 @@
       <c r="Q18">
         <v>96.2</v>
       </c>
-      <c r="R18">
-        <v>24.9</v>
+      <c r="R18" s="5">
+        <v>60.05</v>
       </c>
       <c r="S18">
         <v>71.3</v>
@@ -18440,8 +20720,21 @@
       <c r="U18">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="7"/>
+      <c r="W18" s="5">
+        <f t="shared" si="0"/>
+        <v>27.084961013162264</v>
+      </c>
+      <c r="X18" s="5">
+        <f t="shared" si="1"/>
+        <v>1159.9302894103985</v>
+      </c>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -18493,8 +20786,8 @@
       <c r="Q19">
         <v>95.8</v>
       </c>
-      <c r="R19">
-        <v>26.7</v>
+      <c r="R19" s="5">
+        <v>60.05</v>
       </c>
       <c r="S19">
         <v>69.099999999999994</v>
@@ -18505,8 +20798,21 @@
       <c r="U19">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="7"/>
+      <c r="W19" s="5">
+        <f t="shared" si="0"/>
+        <v>27.067792417570615</v>
+      </c>
+      <c r="X19" s="5">
+        <f t="shared" si="1"/>
+        <v>1159.6397816510998</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="7"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -18558,8 +20864,8 @@
       <c r="Q20">
         <v>96.7</v>
       </c>
-      <c r="R20">
-        <v>43.9</v>
+      <c r="R20" s="5">
+        <v>60.05</v>
       </c>
       <c r="S20">
         <v>52.8</v>
@@ -18570,8 +20876,21 @@
       <c r="U20">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="7"/>
+      <c r="W20" s="5">
+        <f t="shared" si="0"/>
+        <v>20.854774743006065</v>
+      </c>
+      <c r="X20" s="5">
+        <f t="shared" si="1"/>
+        <v>956.34907066704659</v>
+      </c>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="7"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -18623,8 +20942,8 @@
       <c r="Q21">
         <v>87.1</v>
       </c>
-      <c r="R21">
-        <v>28.1</v>
+      <c r="R21" s="5">
+        <v>60.05</v>
       </c>
       <c r="S21">
         <v>58.9</v>
@@ -18635,8 +20954,21 @@
       <c r="U21">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="7"/>
+      <c r="W21" s="5">
+        <f t="shared" si="0"/>
+        <v>21.29086441779102</v>
+      </c>
+      <c r="X21" s="5">
+        <f t="shared" si="1"/>
+        <v>1001.9947013286518</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -18688,8 +21020,8 @@
       <c r="Q22">
         <v>85.1</v>
       </c>
-      <c r="R22">
-        <v>31.7</v>
+      <c r="R22" s="5">
+        <v>60.05</v>
       </c>
       <c r="S22">
         <v>53.3</v>
@@ -18700,8 +21032,21 @@
       <c r="U22">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="7"/>
+      <c r="W22" s="5">
+        <f t="shared" si="0"/>
+        <v>20.590320938283206</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" si="1"/>
+        <v>996.96249705417927</v>
+      </c>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="7"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -18753,8 +21098,8 @@
       <c r="Q23">
         <v>91.1</v>
       </c>
-      <c r="R23">
-        <v>33.299999999999997</v>
+      <c r="R23" s="5">
+        <v>60.05</v>
       </c>
       <c r="S23">
         <v>57.8</v>
@@ -18765,8 +21110,21 @@
       <c r="U23">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="7"/>
+      <c r="W23" s="5">
+        <f t="shared" si="0"/>
+        <v>22.093499244888744</v>
+      </c>
+      <c r="X23" s="5">
+        <f t="shared" si="1"/>
+        <v>1019.6563943119831</v>
+      </c>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="7"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -18818,8 +21176,8 @@
       <c r="Q24">
         <v>93.3</v>
       </c>
-      <c r="R24">
-        <v>42.1</v>
+      <c r="R24" s="5">
+        <v>60.05</v>
       </c>
       <c r="S24">
         <v>51.2</v>
@@ -18830,73 +21188,98 @@
       <c r="U24">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="V24" s="7"/>
+      <c r="W24" s="5">
+        <f t="shared" si="0"/>
+        <v>18.138146280978887</v>
+      </c>
+      <c r="X24" s="5">
+        <f t="shared" si="1"/>
+        <v>848.42677142960906</v>
+      </c>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="7"/>
+    </row>
+    <row r="25" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>1453</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <v>6000</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <v>80</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="8">
         <v>110.1</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="8">
         <v>72.400000000000006</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="8">
         <v>37.700000000000003</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="8">
         <v>1.0549999999999999</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="8">
         <v>57.6</v>
       </c>
-      <c r="J25">
-        <v>99.6</v>
-      </c>
-      <c r="K25">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="L25">
+      <c r="J25" s="8">
+        <v>99.6</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="L25" s="8">
         <v>565892</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="8">
         <v>3.62</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="8">
         <v>1.07</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="8">
         <v>0.91</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="8">
         <v>0.16600000000000001</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="8">
         <v>84.3</v>
       </c>
-      <c r="R25">
-        <v>28.4</v>
-      </c>
-      <c r="S25">
+      <c r="R25" s="5">
+        <v>60.05</v>
+      </c>
+      <c r="S25" s="8">
         <v>55.9</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="8">
         <v>57.4</v>
       </c>
-      <c r="U25">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U25" s="8">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="V25" s="7"/>
+      <c r="W25" s="8">
+        <f t="shared" si="0"/>
+        <v>18.256635742002103</v>
+      </c>
+      <c r="X25" s="5">
+        <f t="shared" si="1"/>
+        <v>873.35063643527042</v>
+      </c>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="9"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -18948,8 +21331,8 @@
       <c r="Q26">
         <v>83.3</v>
       </c>
-      <c r="R26">
-        <v>30.5</v>
+      <c r="R26" s="5">
+        <v>60.05</v>
       </c>
       <c r="S26">
         <v>52.8</v>
@@ -18960,73 +21343,98 @@
       <c r="U26">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="V26" s="7"/>
+      <c r="W26" s="5">
+        <f t="shared" si="0"/>
+        <v>17.811691247581159</v>
+      </c>
+      <c r="X26" s="5">
+        <f t="shared" si="1"/>
+        <v>876.45304952336357</v>
+      </c>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>1497</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="8">
         <v>6000</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <v>84</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="8">
         <v>108.4</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="8">
         <v>72.2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="8">
         <v>36.299999999999997</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="8">
         <v>1.0509999999999999</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="8">
         <v>57.1</v>
       </c>
-      <c r="J27">
-        <v>99.6</v>
-      </c>
-      <c r="K27">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="L27">
+      <c r="J27" s="8">
+        <v>99.6</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="L27" s="8">
         <v>581745</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="8">
         <v>3.62</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="8">
         <v>0.93</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="8">
         <v>0.17699999999999999</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="8">
         <v>83.4</v>
       </c>
-      <c r="R27">
-        <v>33.9</v>
-      </c>
-      <c r="S27">
+      <c r="R27" s="5">
+        <v>60.05</v>
+      </c>
+      <c r="S27" s="8">
         <v>49.6</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="8">
         <v>56.9</v>
       </c>
-      <c r="U27">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U27" s="8">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="V27" s="7"/>
+      <c r="W27" s="8">
+        <f t="shared" si="0"/>
+        <v>17.80896621098745</v>
+      </c>
+      <c r="X27" s="5">
+        <f t="shared" si="1"/>
+        <v>887.50550527768041</v>
+      </c>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="9"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -19078,8 +21486,8 @@
       <c r="Q28">
         <v>101.8</v>
       </c>
-      <c r="R28">
-        <v>40.4</v>
+      <c r="R28" s="5">
+        <v>60.05</v>
       </c>
       <c r="S28">
         <v>61.4</v>
@@ -19090,8 +21498,21 @@
       <c r="U28">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="7"/>
+      <c r="W28" s="5">
+        <f t="shared" si="0"/>
+        <v>18.009165941624495</v>
+      </c>
+      <c r="X28" s="5">
+        <f t="shared" si="1"/>
+        <v>768.12737348154576</v>
+      </c>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -19143,8 +21564,8 @@
       <c r="Q29">
         <v>91.1</v>
       </c>
-      <c r="R29">
-        <v>29.1</v>
+      <c r="R29" s="5">
+        <v>60.05</v>
       </c>
       <c r="S29">
         <v>61.9</v>
@@ -19155,8 +21576,21 @@
       <c r="U29">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29" s="7"/>
+      <c r="W29" s="5">
+        <f t="shared" si="0"/>
+        <v>17.944631908853314</v>
+      </c>
+      <c r="X29" s="5">
+        <f t="shared" si="1"/>
+        <v>800.3012368298173</v>
+      </c>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -19208,8 +21642,8 @@
       <c r="Q30">
         <v>92.5</v>
       </c>
-      <c r="R30">
-        <v>30.8</v>
+      <c r="R30" s="5">
+        <v>60.05</v>
       </c>
       <c r="S30">
         <v>61.7</v>
@@ -19220,8 +21654,21 @@
       <c r="U30">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" s="7"/>
+      <c r="W30" s="5">
+        <f t="shared" si="0"/>
+        <v>17.843479078687178</v>
+      </c>
+      <c r="X30" s="5">
+        <f t="shared" si="1"/>
+        <v>793.94083430667877</v>
+      </c>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="7"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -19273,8 +21720,8 @@
       <c r="Q31">
         <v>92.1</v>
       </c>
-      <c r="R31">
-        <v>28.7</v>
+      <c r="R31" s="5">
+        <v>60.05</v>
       </c>
       <c r="S31">
         <v>63.4</v>
@@ -19285,10 +21732,24 @@
       <c r="U31">
         <v>0.17599999999999999</v>
       </c>
+      <c r="V31" s="7"/>
+      <c r="W31" s="5">
+        <f t="shared" si="0"/>
+        <v>18.20794141708247</v>
+      </c>
+      <c r="X31" s="5">
+        <f>T31*1000/3.6/W31</f>
+        <v>811.61167203193247</v>
+      </c>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19296,7 +21757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
@@ -21274,7 +23735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -31132,13 +33593,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:W31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -31146,7 +33612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31211,7 +33677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -31275,8 +33741,20 @@
       <c r="U3">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" s="6">
+        <f t="shared" ref="V3:V31" si="0">((E3-Q3)-(F3-R3))/LN((E3-Q3)/(F3-R3))</f>
+        <v>19.702647426847658</v>
+      </c>
+      <c r="W3">
+        <f>L3/3600</f>
+        <v>77.272777777777776</v>
+      </c>
+      <c r="X3" s="6">
+        <f>T3*1000/3.6/V3</f>
+        <v>291.83895318376392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -31340,8 +33818,20 @@
       <c r="U4">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="6">
+        <f t="shared" si="0"/>
+        <v>19.903628553162452</v>
+      </c>
+      <c r="W4" s="6">
+        <f t="shared" ref="W4:W31" si="1">L4/3600</f>
+        <v>77.917777777777772</v>
+      </c>
+      <c r="X4">
+        <f>T4*1000/3.6/V4</f>
+        <v>290.28766098329123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -31405,8 +33895,20 @@
       <c r="U5">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" s="6">
+        <f t="shared" si="0"/>
+        <v>19.053483835468512</v>
+      </c>
+      <c r="W5" s="6">
+        <f t="shared" si="1"/>
+        <v>73.343055555555551</v>
+      </c>
+      <c r="X5" s="6">
+        <f>T5*1000/3.6/V5</f>
+        <v>279.91381415535182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -31470,8 +33972,20 @@
       <c r="U6">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" s="6">
+        <f t="shared" si="0"/>
+        <v>19.319695936506278</v>
+      </c>
+      <c r="W6" s="6">
+        <f t="shared" si="1"/>
+        <v>78.425555555555562</v>
+      </c>
+      <c r="X6" s="6">
+        <f>T6*1000/3.6/V6</f>
+        <v>296.18593589817198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -31535,8 +34049,20 @@
       <c r="U7">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" s="6">
+        <f t="shared" si="0"/>
+        <v>18.231265602887017</v>
+      </c>
+      <c r="W7" s="6">
+        <f t="shared" si="1"/>
+        <v>77.362222222222229</v>
+      </c>
+      <c r="X7" s="6">
+        <f>T7*1000/3.6/V7</f>
+        <v>301.67954983493007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -31600,8 +34126,20 @@
       <c r="U8">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="6">
+        <f t="shared" si="0"/>
+        <v>20.150804741449399</v>
+      </c>
+      <c r="W8" s="6">
+        <f t="shared" si="1"/>
+        <v>76.50611111111111</v>
+      </c>
+      <c r="X8" s="6">
+        <f>T8*1000/3.6/V8</f>
+        <v>283.969910663262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -31665,8 +34203,20 @@
       <c r="U9">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="6">
+        <f t="shared" si="0"/>
+        <v>19.108518954734652</v>
+      </c>
+      <c r="W9" s="6">
+        <f t="shared" si="1"/>
+        <v>75.518611111111113</v>
+      </c>
+      <c r="X9" s="6">
+        <f>T9*1000/3.6/V9</f>
+        <v>289.28342331879787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -31730,8 +34280,20 @@
       <c r="U10">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="6">
+        <f t="shared" si="0"/>
+        <v>19.694330056898043</v>
+      </c>
+      <c r="W10" s="6">
+        <f t="shared" si="1"/>
+        <v>76.926944444444445</v>
+      </c>
+      <c r="X10" s="6">
+        <f>T10*1000/3.6/V10</f>
+        <v>291.96220350669063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -31795,8 +34357,20 @@
       <c r="U11">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="6">
+        <f t="shared" si="0"/>
+        <v>19.501646036398288</v>
+      </c>
+      <c r="W11" s="6">
+        <f t="shared" si="1"/>
+        <v>75.725277777777777</v>
+      </c>
+      <c r="X11" s="6">
+        <f>T11*1000/3.6/V11</f>
+        <v>286.30061908171655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -31860,8 +34434,20 @@
       <c r="U12">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="6">
+        <f t="shared" si="0"/>
+        <v>18.697424678838647</v>
+      </c>
+      <c r="W12" s="6">
+        <f t="shared" si="1"/>
+        <v>72.558055555555555</v>
+      </c>
+      <c r="X12" s="6">
+        <f>T12*1000/3.6/V12</f>
+        <v>282.2729797516476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -31925,8 +34511,20 @@
       <c r="U13">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="6">
+        <f t="shared" si="0"/>
+        <v>18.295174496200335</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" si="1"/>
+        <v>71.579444444444448</v>
+      </c>
+      <c r="X13" s="6">
+        <f>T13*1000/3.6/V13</f>
+        <v>285.44260254564983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -31990,8 +34588,20 @@
       <c r="U14">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="6">
+        <f t="shared" si="0"/>
+        <v>18.743372552519055</v>
+      </c>
+      <c r="W14" s="6">
+        <f t="shared" si="1"/>
+        <v>72.975833333333327</v>
+      </c>
+      <c r="X14" s="6">
+        <f>T14*1000/3.6/V14</f>
+        <v>284.54502082745768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -32055,8 +34665,20 @@
       <c r="U15">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="6">
+        <f t="shared" si="0"/>
+        <v>18.649928383881889</v>
+      </c>
+      <c r="W15" s="6">
+        <f t="shared" si="1"/>
+        <v>71.782222222222217</v>
+      </c>
+      <c r="X15" s="6">
+        <f>T15*1000/3.6/V15</f>
+        <v>280.01299065231274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -32120,8 +34742,20 @@
       <c r="U16">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="6">
+        <f t="shared" si="0"/>
+        <v>18.624483497578417</v>
+      </c>
+      <c r="W16" s="6">
+        <f t="shared" si="1"/>
+        <v>76.636388888888888</v>
+      </c>
+      <c r="X16" s="6">
+        <f>T16*1000/3.6/V16</f>
+        <v>295.31020286898791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -32185,8 +34819,20 @@
       <c r="U17">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="6">
+        <f t="shared" si="0"/>
+        <v>19.555958913894745</v>
+      </c>
+      <c r="W17" s="6">
+        <f t="shared" si="1"/>
+        <v>78.039444444444442</v>
+      </c>
+      <c r="X17" s="6">
+        <f>T17*1000/3.6/V17</f>
+        <v>294.0280262050743</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -32250,8 +34896,20 @@
       <c r="U18">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="6">
+        <f t="shared" si="0"/>
+        <v>18.413300290522017</v>
+      </c>
+      <c r="W18" s="6">
+        <f t="shared" si="1"/>
+        <v>77.037777777777777</v>
+      </c>
+      <c r="X18" s="6">
+        <f>T18*1000/3.6/V18</f>
+        <v>301.71427543682643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -32315,8 +34973,20 @@
       <c r="U19">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="6">
+        <f t="shared" si="0"/>
+        <v>19.017631980157759</v>
+      </c>
+      <c r="W19" s="6">
+        <f t="shared" si="1"/>
+        <v>77.618611111111107</v>
+      </c>
+      <c r="X19" s="6">
+        <f>T19*1000/3.6/V19</f>
+        <v>296.50846618402761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -32380,8 +35050,20 @@
       <c r="U20">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="6">
+        <f t="shared" si="0"/>
+        <v>15.43088869240866</v>
+      </c>
+      <c r="W20" s="6">
+        <f t="shared" si="1"/>
+        <v>58.513888888888886</v>
+      </c>
+      <c r="X20" s="6">
+        <f>T20*1000/3.6/V20</f>
+        <v>241.21891463408696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -32445,8 +35127,20 @@
       <c r="U21">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="6">
+        <f t="shared" si="0"/>
+        <v>15.733170324599136</v>
+      </c>
+      <c r="W21" s="6">
+        <f t="shared" si="1"/>
+        <v>61.487499999999997</v>
+      </c>
+      <c r="X21" s="6">
+        <f>T21*1000/3.6/V21</f>
+        <v>252.47436722982468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -32510,8 +35204,20 @@
       <c r="U22">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="6">
+        <f t="shared" si="0"/>
+        <v>15.72354372575098</v>
+      </c>
+      <c r="W22" s="6">
+        <f t="shared" si="1"/>
+        <v>61.153611111111111</v>
+      </c>
+      <c r="X22" s="6">
+        <f>T22*1000/3.6/V22</f>
+        <v>252.62894240035592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -32575,8 +35281,20 @@
       <c r="U23">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="6">
+        <f t="shared" si="0"/>
+        <v>16.473729766418789</v>
+      </c>
+      <c r="W23" s="6">
+        <f t="shared" si="1"/>
+        <v>63.870555555555555</v>
+      </c>
+      <c r="X23" s="6">
+        <f>T23*1000/3.6/V23</f>
+        <v>259.67269333857234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -32640,8 +35358,20 @@
       <c r="U24">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="6">
+        <f t="shared" si="0"/>
+        <v>12.066592885043558</v>
+      </c>
+      <c r="W24" s="6">
+        <f t="shared" si="1"/>
+        <v>46.233611111111109</v>
+      </c>
+      <c r="X24" s="6">
+        <f>T24*1000/3.6/V24</f>
+        <v>209.48562712436726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -32705,8 +35435,20 @@
       <c r="U25">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="6">
+        <f t="shared" si="0"/>
+        <v>11.921026003887965</v>
+      </c>
+      <c r="W25" s="6">
+        <f t="shared" si="1"/>
+        <v>47.850277777777777</v>
+      </c>
+      <c r="X25" s="6">
+        <f>T25*1000/3.6/V25</f>
+        <v>216.70394247028705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -32770,8 +35512,20 @@
       <c r="U26">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="6">
+        <f t="shared" si="0"/>
+        <v>12.167696557422857</v>
+      </c>
+      <c r="W26" s="6">
+        <f t="shared" si="1"/>
+        <v>47.787777777777777</v>
+      </c>
+      <c r="X26" s="6">
+        <f>T26*1000/3.6/V26</f>
+        <v>214.59370709883558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -32835,8 +35589,20 @@
       <c r="U27">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" s="6">
+        <f t="shared" si="0"/>
+        <v>12.41311698245373</v>
+      </c>
+      <c r="W27" s="6">
+        <f t="shared" si="1"/>
+        <v>49.252499999999998</v>
+      </c>
+      <c r="X27" s="6">
+        <f>T27*1000/3.6/V27</f>
+        <v>223.77762021450701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -32900,8 +35666,20 @@
       <c r="U28">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5030464266881385</v>
+      </c>
+      <c r="W28" s="6">
+        <f t="shared" si="1"/>
+        <v>39.044166666666669</v>
+      </c>
+      <c r="X28" s="6">
+        <f>T28*1000/3.6/V28</f>
+        <v>187.07451252527898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -32965,8 +35743,20 @@
       <c r="U29">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29" s="6">
+        <f t="shared" si="0"/>
+        <v>9.1397269168871755</v>
+      </c>
+      <c r="W29" s="6">
+        <f t="shared" si="1"/>
+        <v>40.672222222222224</v>
+      </c>
+      <c r="X29" s="6">
+        <f>T29*1000/3.6/V29</f>
+        <v>206.66797882099195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -33030,8 +35820,20 @@
       <c r="U30">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" s="6">
+        <f t="shared" si="0"/>
+        <v>9.4542053224185736</v>
+      </c>
+      <c r="W30" s="6">
+        <f t="shared" si="1"/>
+        <v>40.411111111111111</v>
+      </c>
+      <c r="X30" s="6">
+        <f>T30*1000/3.6/V30</f>
+        <v>199.79351246051357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -33094,11 +35896,24 @@
       </c>
       <c r="U31">
         <v>0.17599999999999999</v>
+      </c>
+      <c r="V31" s="6">
+        <f t="shared" si="0"/>
+        <v>8.8930349372082151</v>
+      </c>
+      <c r="W31" s="6">
+        <f t="shared" si="1"/>
+        <v>40.915555555555557</v>
+      </c>
+      <c r="X31" s="6">
+        <f>T31*1000/3.6/V31</f>
+        <v>212.40092974174985</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
